--- a/CNN+att results/cnn+att_ce_result_full.xlsx
+++ b/CNN+att results/cnn+att_ce_result_full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/hdong3_ed_ac_uk/Documents/My python projects/caml-mimic/results/caml_code_emb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdong3\OneDrive\python_projects\label-embedding-medical-coding\CNN+att results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="caml_ce_result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -965,13 +965,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -2190,92 +2192,92 @@
         <v>0.055±0.001</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" ref="B12:AH12" si="0">LEFT(AVERAGE(B2:B11),5) &amp;"±"&amp; LEFT(_xlfn.STDEV.P(B2:B11),5)</f>
+        <f t="shared" ref="B12:AH12" si="0">ROUND(AVERAGE(B2:B11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(B2:B11),3)</f>
         <v>0.081±0.001</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>0.070±0.001</v>
+        <v>0.071±0.001</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>0.075±0.001</v>
+        <v>0.076±0.001</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>0.361±0.000</v>
+        <v>0.362±0.001</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>0.620±0.002</v>
+        <v>0.621±0.003</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>0.463±0.001</v>
+        <v>0.464±0.002</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>0.531±0.000</v>
+        <v>0.531±0.001</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>0.383±0.000</v>
+        <v>0.384±0</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>0.704±0.000</v>
+        <v>0.704±0.001</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>0.496±0.000</v>
+        <v>0.497±0</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>0.536±0.000</v>
+        <v>0.537±0.001</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>0.551±0.000</v>
+        <v>0.552±0.001</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="0"/>
-        <v>0.544±0.000</v>
+        <v>0.544±0.001</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>0.908±0.000</v>
+        <v>0.909±0</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="0"/>
-        <v>0.986±3.056</v>
+        <v>0.986±0</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="0"/>
-        <v>0.005±1.551</v>
+        <v>0.006±0</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
-        <v>0.058±0.000</v>
+        <v>0.059±0.001</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="0"/>
-        <v>0.092±0.000</v>
+        <v>0.093±0.001</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="0"/>
-        <v>0.079±0.000</v>
+        <v>0.08±0.001</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="0"/>
-        <v>0.085±0.000</v>
+        <v>0.086±0.001</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="0"/>
-        <v>0.355±0.000</v>
+        <v>0.356±0.001</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="0"/>
-        <v>0.617±0.003</v>
+        <v>0.618±0.004</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="0"/>
@@ -2283,43 +2285,43 @@
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="0"/>
-        <v>0.524±0.000</v>
+        <v>0.525±0.001</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="0"/>
-        <v>0.365±0.000</v>
+        <v>0.366±0.001</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>0.696±0.001</v>
+        <v>0.697±0.001</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="0"/>
-        <v>0.479±0.000</v>
+        <v>0.48±0.001</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="0"/>
-        <v>0.518±0.000</v>
+        <v>0.518±0.001</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="0"/>
-        <v>0.553±0.000</v>
+        <v>0.553±0.001</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="0"/>
-        <v>0.535±0.000</v>
+        <v>0.535±0.001</v>
       </c>
       <c r="AF12" t="str">
         <f t="shared" si="0"/>
-        <v>0.901±0.000</v>
+        <v>0.902±0</v>
       </c>
       <c r="AG12" t="str">
-        <f>LEFT(AVERAGE(AG2:AG11),5) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(AG2:AG11),3)</f>
-        <v>0.985±0</v>
+        <f t="shared" si="0"/>
+        <v>0.986±0</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="0"/>
-        <v>0.005±1.802</v>
+        <v>0.006±0</v>
       </c>
     </row>
   </sheetData>
@@ -2492,18 +2494,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2525,25 +2527,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3EDDC10-1EA6-455B-AD1F-06971EE8FCE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{428EC007-0CA4-4F08-9C0F-63193C72EB2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3EDDC10-1EA6-455B-AD1F-06971EE8FCE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CNN+att results/cnn+att_ce_result_full.xlsx
+++ b/CNN+att results/cnn+att_ce_result_full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>acc_macro</t>
   </si>
@@ -126,37 +126,7 @@
     <t>loss_tr</t>
   </si>
   <si>
-    <t>conv_attn_Dec_11_20%3A35%3A48</t>
-  </si>
-  <si>
     <t>nan</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A39%3A45</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A42%3A28</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A43%3A08</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A47%3A02</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_20%3A49%3A35</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_11_21%3A02%3A18</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_12_21%3A22%3A48</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_12_21%3A37%3A47</t>
-  </si>
-  <si>
-    <t>conv_attn_Dec_12_21%3A38%3A20</t>
   </si>
 </sst>
 </file>
@@ -963,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +946,7 @@
     <col min="33" max="33" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,11 +1052,8 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.5448099346846899E-2</v>
       </c>
@@ -1190,13 +1157,10 @@
         <v>5.8995340180597097E-3</v>
       </c>
       <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.5587195287292702E-2</v>
       </c>
@@ -1300,13 +1264,10 @@
         <v>5.8985669848563996E-3</v>
       </c>
       <c r="AI3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.51471729126062E-2</v>
       </c>
@@ -1410,13 +1371,10 @@
         <v>5.8968712957337297E-3</v>
       </c>
       <c r="AI4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.53873647976292E-2</v>
       </c>
@@ -1520,13 +1478,10 @@
         <v>5.9076289171042604E-3</v>
       </c>
       <c r="AI5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.5604934080692503E-2</v>
       </c>
@@ -1630,13 +1585,10 @@
         <v>5.90107194805256E-3</v>
       </c>
       <c r="AI6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.3458070081313598E-2</v>
       </c>
@@ -1740,13 +1692,10 @@
         <v>5.86925128616104E-3</v>
       </c>
       <c r="AI7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.4601139480581699E-2</v>
       </c>
@@ -1850,13 +1799,10 @@
         <v>5.8768485678692799E-3</v>
       </c>
       <c r="AI8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.63294523727874E-2</v>
       </c>
@@ -1960,13 +1906,10 @@
         <v>5.9287084398356397E-3</v>
       </c>
       <c r="AI9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.5637434946443597E-2</v>
       </c>
@@ -2070,13 +2013,10 @@
         <v>5.9081796156973702E-3</v>
       </c>
       <c r="AI10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.3448907180805402E-2</v>
       </c>
@@ -2180,13 +2120,10 @@
         <v>5.8682684300673501E-3</v>
       </c>
       <c r="AI11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>ROUND(AVERAGE(A2:A11),3) &amp;"±"&amp; ROUND(_xlfn.STDEV.P(A2:A11),3)</f>
         <v>0.055±0.001</v>
@@ -2494,18 +2431,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2527,25 +2464,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3EDDC10-1EA6-455B-AD1F-06971EE8FCE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{428EC007-0CA4-4F08-9C0F-63193C72EB2C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{428EC007-0CA4-4F08-9C0F-63193C72EB2C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3EDDC10-1EA6-455B-AD1F-06971EE8FCE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1b835ce5-16f2-421e-8510-4750c6de8732"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>